--- a/Logistics/GroupWorkAppliedExercises/Groups.xlsx
+++ b/Logistics/GroupWorkAppliedExercises/Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdrews/Nextcloud/esd_teach/geophyscis_BSc_SoSe22/Logistics/GroupWorkAppliedExercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF6C5A-9EE4-AD4C-BC70-EE3710494D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CCB02B-FC5D-094C-BB37-EC83F4D0CD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="7240" windowWidth="31560" windowHeight="19960" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>Group ID</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Brehm</t>
-  </si>
-  <si>
-    <t>Arnold</t>
   </si>
   <si>
     <t>EJ KLAA Wuhu</t>
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19CC875-EB6A-0642-8E94-3481C685EF0B}">
   <dimension ref="A3:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,17 +774,17 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -801,19 +798,19 @@
         <v>44705</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="8">
         <v>44724</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="8">
         <v>44747</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -827,19 +824,19 @@
         <v>44705</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="5">
         <v>44724</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="5">
         <v>44747</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -853,19 +850,19 @@
         <v>44704</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="5">
         <v>44725</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="5">
         <v>44748</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -876,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -915,19 +912,19 @@
         <v>44704</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="8">
         <v>44725</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="5">
         <v>44747</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -941,13 +938,13 @@
         <v>44725</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="8">
         <v>44749</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -961,7 +958,7 @@
         <v>44753</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="6"/>
@@ -1010,19 +1007,19 @@
         <v>44704</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10">
         <v>44720</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="8">
         <v>44747</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1036,19 +1033,19 @@
         <v>44704</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" s="8">
         <v>44720</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5">
         <v>44747</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1062,19 +1059,19 @@
         <v>44705</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="5">
         <v>44724</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="5">
         <v>44750</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1106,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
@@ -1114,17 +1111,17 @@
       <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1146,71 +1143,65 @@
         <v>44706</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="5">
         <v>44724</v>
       </c>
       <c r="I25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="8">
         <v>44748</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
       </c>
       <c r="F26" s="5">
         <v>44709</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="8">
         <v>44724</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="5">
         <v>44753</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
       <c r="F27" s="5">
         <v>44709</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" s="5">
         <v>44725</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="5">
         <v>44752</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1218,110 +1209,110 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
       </c>
       <c r="F29" s="5">
         <v>44705</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="5">
         <v>44725</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="8">
         <v>44749</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
       </c>
       <c r="F30" s="8">
         <v>44703</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" s="8">
         <v>44725</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="5">
         <v>44747</v>
       </c>
       <c r="K30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
       </c>
       <c r="F31" s="5">
         <v>44703</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="5">
         <v>44724</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" s="5">
         <v>44747</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1329,76 +1320,76 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="8">
         <v>44703</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H34" s="8">
         <v>44721</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" s="8">
         <v>44748</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
       </c>
       <c r="F35" s="5">
         <v>44704</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" t="s">
         <v>103</v>
-      </c>
-      <c r="J35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
       </c>
       <c r="F36" s="5">
         <v>44706</v>
       </c>
       <c r="G36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1406,34 +1397,34 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F39" s="8">
         <v>44705</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="10">
         <v>44725</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J39" s="8">
         <v>44753</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1441,34 +1432,34 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="5">
         <v>44704</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="8">
         <v>44720</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
         <v>93</v>
-      </c>
-      <c r="D41" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="5">
         <v>44705</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="5"/>
       <c r="J41" s="8"/>
@@ -1476,26 +1467,26 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1503,6 +1494,8 @@
     <hyperlink ref="E34" r:id="rId1" xr:uid="{06A45D9A-43E9-FF49-81FB-6B5526BAF898}"/>
     <hyperlink ref="E39" r:id="rId2" xr:uid="{CC1C62DD-24A4-5745-9CE4-D0847BD40B79}"/>
     <hyperlink ref="E28" r:id="rId3" xr:uid="{CBAEADB5-C007-2847-A23C-ECA02CC68080}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{807DE9BF-7A82-FC44-B80E-24E396BFF84E}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{BFA6ED5A-7F56-8F4E-83F6-C8C6E2D28348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logistics/GroupWorkAppliedExercises/Groups.xlsx
+++ b/Logistics/GroupWorkAppliedExercises/Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdrews/Nextcloud/esd_teach/geophyscis_BSc_SoSe22/Logistics/GroupWorkAppliedExercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CCB02B-FC5D-094C-BB37-EC83F4D0CD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B689BEF-6192-5E4A-93A1-5ABB85B4E4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19CC875-EB6A-0642-8E94-3481C685EF0B}">
   <dimension ref="A3:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +897,7 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1496,6 +1496,7 @@
     <hyperlink ref="E28" r:id="rId3" xr:uid="{CBAEADB5-C007-2847-A23C-ECA02CC68080}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{807DE9BF-7A82-FC44-B80E-24E396BFF84E}"/>
     <hyperlink ref="E23" r:id="rId5" xr:uid="{BFA6ED5A-7F56-8F4E-83F6-C8C6E2D28348}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{C63F73F4-C68D-A04C-B06B-5A41F5767028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logistics/GroupWorkAppliedExercises/Groups.xlsx
+++ b/Logistics/GroupWorkAppliedExercises/Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdrews/Nextcloud/esd_teach/geophyscis_BSc_SoSe22/Logistics/GroupWorkAppliedExercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B689BEF-6192-5E4A-93A1-5ABB85B4E4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51FE291-3DC7-8A44-8090-1CF1BE880356}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
+    <workbookView xWindow="8260" yWindow="7280" windowWidth="28800" windowHeight="15920" xr2:uid="{8CEFA38B-E75E-DE47-82E4-9DA36C646757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Group ID</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>nicht 8.9</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Schmidth Missing</t>
   </si>
 </sst>
 </file>
@@ -735,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19CC875-EB6A-0642-8E94-3481C685EF0B}">
   <dimension ref="A3:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,7 +993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1000,7 +1006,7 @@
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="5">
@@ -1021,8 +1027,11 @@
       <c r="K17" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1047,8 +1056,11 @@
       <c r="K18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>40</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>42</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>50</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>52</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>79</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F27" s="5">
         <v>44709</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>58</v>
       </c>
@@ -1246,8 +1258,11 @@
       <c r="K29" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>60</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>62</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>64</v>
       </c>
@@ -1497,6 +1512,7 @@
     <hyperlink ref="E4" r:id="rId4" xr:uid="{807DE9BF-7A82-FC44-B80E-24E396BFF84E}"/>
     <hyperlink ref="E23" r:id="rId5" xr:uid="{BFA6ED5A-7F56-8F4E-83F6-C8C6E2D28348}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{C63F73F4-C68D-A04C-B06B-5A41F5767028}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{F7CD82C0-0F1A-464A-885D-CD237BF1936C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
